--- a/data-folder/Données_groupe_09.xlsx
+++ b/data-folder/Données_groupe_09.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jean\MIASHS\Projet\Fichiers_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jean\MIASHS\Projet\Fichiers_2025new\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18570" windowHeight="8505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="données09" sheetId="2" r:id="rId1"/>
@@ -454,13 +454,13 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>32.07</v>
+        <v>18.87</v>
       </c>
       <c r="B12">
         <v>119</v>
       </c>
       <c r="C12">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -509,57 +509,57 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>60.06</v>
+        <v>45.39</v>
       </c>
       <c r="B17">
         <v>105</v>
       </c>
       <c r="C17">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>85.79</v>
+        <v>41.699999999999996</v>
       </c>
       <c r="B18">
         <v>119</v>
       </c>
       <c r="C18">
-        <v>169</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>40.96</v>
+        <v>11.020000000000001</v>
       </c>
       <c r="B19">
         <v>135</v>
       </c>
       <c r="C19">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>89.28</v>
+        <v>35.839999999999996</v>
       </c>
       <c r="B20">
         <v>124</v>
       </c>
       <c r="C20">
-        <v>176</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>56.389999999999993</v>
+        <v>27.529999999999998</v>
       </c>
       <c r="B21">
         <v>119</v>
       </c>
       <c r="C21">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -586,13 +586,13 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>33.979999999999997</v>
+        <v>11.95</v>
       </c>
       <c r="B24">
         <v>130</v>
       </c>
       <c r="C24">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -608,13 +608,13 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>47.05</v>
+        <v>43.64</v>
       </c>
       <c r="B26">
         <v>96</v>
       </c>
       <c r="C26">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -630,13 +630,13 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>23.5</v>
+        <v>19.16</v>
       </c>
       <c r="B28">
         <v>104</v>
       </c>
       <c r="C28">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -696,13 +696,13 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>43.34</v>
+        <v>20.22</v>
       </c>
       <c r="B34">
         <v>125</v>
       </c>
       <c r="C34">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -729,13 +729,13 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>40.229999999999997</v>
+        <v>32.049999999999997</v>
       </c>
       <c r="B37">
         <v>104</v>
       </c>
       <c r="C37">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -773,13 +773,13 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>63.11</v>
+        <v>12.76</v>
       </c>
       <c r="B41">
         <v>138</v>
       </c>
       <c r="C41">
-        <v>178</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -817,24 +817,24 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>71.56</v>
+        <v>58.02</v>
       </c>
       <c r="B45">
         <v>103</v>
       </c>
       <c r="C45">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>20.599999999999998</v>
+        <v>8.6</v>
       </c>
       <c r="B46">
         <v>137</v>
       </c>
       <c r="C46">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -883,13 +883,13 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>50.12</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="B51">
         <v>141</v>
       </c>
       <c r="C51">
-        <v>174</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -927,24 +927,24 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>8.64</v>
+        <v>7.35</v>
       </c>
       <c r="B55">
         <v>104</v>
       </c>
       <c r="C55">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>17.810000000000002</v>
+        <v>11.15</v>
       </c>
       <c r="B56">
         <v>124</v>
       </c>
       <c r="C56">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -993,13 +993,13 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>93.03</v>
+        <v>11.68</v>
       </c>
       <c r="B61">
         <v>141</v>
       </c>
       <c r="C61">
-        <v>195</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1059,13 +1059,13 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>13.26</v>
+        <v>11.91</v>
       </c>
       <c r="B67">
         <v>104</v>
       </c>
       <c r="C67">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1092,24 +1092,24 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>58.56</v>
+        <v>34.08</v>
       </c>
       <c r="B70">
         <v>114</v>
       </c>
       <c r="C70">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>80.289999999999992</v>
+        <v>71.819999999999993</v>
       </c>
       <c r="B71">
         <v>98</v>
       </c>
       <c r="C71">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1136,24 +1136,24 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>60.6</v>
+        <v>26.43</v>
       </c>
       <c r="B74">
         <v>123</v>
       </c>
       <c r="C74">
-        <v>162</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>37.230000000000004</v>
+        <v>5.82</v>
       </c>
       <c r="B75">
         <v>144</v>
       </c>
       <c r="C75">
-        <v>169</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1202,35 +1202,35 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>23.7</v>
+        <v>8.86</v>
       </c>
       <c r="B80">
         <v>139</v>
       </c>
       <c r="C80">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>57.330000000000005</v>
+        <v>35.010000000000005</v>
       </c>
       <c r="B81">
         <v>114</v>
       </c>
       <c r="C81">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>10.93</v>
+        <v>5.76</v>
       </c>
       <c r="B82">
         <v>122</v>
       </c>
       <c r="C82">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1356,13 +1356,13 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>46.949999999999996</v>
+        <v>33.79</v>
       </c>
       <c r="B94">
         <v>109</v>
       </c>
       <c r="C94">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1378,24 +1378,24 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>47.12</v>
+        <v>19.950000000000003</v>
       </c>
       <c r="B96">
         <v>124</v>
       </c>
       <c r="C96">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>79.069999999999993</v>
+        <v>74.89</v>
       </c>
       <c r="B97">
         <v>95</v>
       </c>
       <c r="C97">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
